--- a/DAILY DEV/Database update/Sample database_Ver2.xlsx
+++ b/DAILY DEV/Database update/Sample database_Ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT MENTORSHIP\DAILY DEV\Database update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A345D-1D78-4FBF-8CEA-B251F63D644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3896063-E30F-4708-BE63-117694F99E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{15D63BB5-C475-44D3-8E71-0D37B2089469}"/>
   </bookViews>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828876ED-8C0B-42FC-B508-7F82DE8718BA}">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1625,7 @@
       <c r="H37" s="17">
         <v>1</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="35">
         <v>1</v>
       </c>
       <c r="J37" s="28">
@@ -1651,7 +1651,7 @@
       <c r="H38" s="17">
         <v>1</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="37">
         <v>2</v>
       </c>
       <c r="J38" s="28">
@@ -1677,7 +1677,7 @@
       <c r="H39" s="18">
         <v>2</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="37">
         <v>2</v>
       </c>
       <c r="J39" s="28">
@@ -1703,7 +1703,7 @@
       <c r="H40" s="18">
         <v>2</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="38">
         <v>3</v>
       </c>
       <c r="J40" s="28">
@@ -1729,7 +1729,7 @@
       <c r="H41" s="20">
         <v>3</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="35">
         <v>1</v>
       </c>
       <c r="J41" s="28">
@@ -1755,7 +1755,7 @@
       <c r="H42" s="19">
         <v>3</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="38">
         <v>3</v>
       </c>
       <c r="J42" s="29">

--- a/DAILY DEV/Database update/Sample database_Ver2.xlsx
+++ b/DAILY DEV/Database update/Sample database_Ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT MENTORSHIP\DAILY DEV\Database update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3896063-E30F-4708-BE63-117694F99E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C2BF1E-C70A-43A9-8A9F-818C798DA6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{15D63BB5-C475-44D3-8E71-0D37B2089469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{15D63BB5-C475-44D3-8E71-0D37B2089469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +301,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -499,10 +506,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,8 +625,10 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -933,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828876ED-8C0B-42FC-B508-7F82DE8718BA}">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1150,7 @@
       <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="40" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="14">
@@ -1872,8 +1882,9 @@
     <hyperlink ref="E7" r:id="rId3" xr:uid="{A078C69A-28A2-4C6A-AEAD-1D5E4FE337CF}"/>
     <hyperlink ref="I18" r:id="rId4" xr:uid="{EB815D79-AD10-45BC-AE99-E013110CD290}"/>
     <hyperlink ref="I19" r:id="rId5" xr:uid="{14A1805E-57C0-4C48-8071-AC13DEF45B89}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{5D9BD9BA-4362-456C-89E7-49A587B8A532}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DAILY DEV/Database update/Sample database_Ver2.xlsx
+++ b/DAILY DEV/Database update/Sample database_Ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT MENTORSHIP\DAILY DEV\Database update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C2BF1E-C70A-43A9-8A9F-818C798DA6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6905ADB-EC6A-4F93-B91A-D1DDCFD2D177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{15D63BB5-C475-44D3-8E71-0D37B2089469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{15D63BB5-C475-44D3-8E71-0D37B2089469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,13 +301,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -506,11 +499,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,10 +617,8 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -944,7 +934,7 @@
   <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1140,7 @@
       <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="14">

--- a/DAILY DEV/Database update/Sample database_Ver2.xlsx
+++ b/DAILY DEV/Database update/Sample database_Ver2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT MENTORSHIP\DAILY DEV\Database update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6905ADB-EC6A-4F93-B91A-D1DDCFD2D177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9BCFEA-4279-4F19-BA72-288C2C28B48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{15D63BB5-C475-44D3-8E71-0D37B2089469}"/>
+    <workbookView xWindow="28680" yWindow="2700" windowWidth="19800" windowHeight="11760" xr2:uid="{15D63BB5-C475-44D3-8E71-0D37B2089469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
-  <si>
-    <t>NewsID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>UserID</t>
   </si>
@@ -934,7 +931,7 @@
   <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +953,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
@@ -970,27 +967,27 @@
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -998,13 +995,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="28">
         <v>45566</v>
@@ -1018,13 +1015,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="28">
         <v>45566</v>
@@ -1038,13 +1035,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="29">
         <v>45566</v>
@@ -1055,36 +1052,36 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1092,22 +1089,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="12">
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="35">
         <v>1</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -1115,22 +1112,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="13">
         <v>2</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="37">
         <v>2</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -1138,59 +1135,59 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="14">
         <v>3</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="38">
         <v>3</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1198,16 +1195,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="28">
         <v>45568</v>
@@ -1216,7 +1213,7 @@
         <v>45568</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="9">
         <v>1</v>
@@ -1230,16 +1227,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="28">
         <v>45568</v>
@@ -1248,7 +1245,7 @@
         <v>45568</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" s="9">
         <v>1</v>
@@ -1262,16 +1259,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="28">
         <v>45568</v>
@@ -1280,7 +1277,7 @@
         <v>45568</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" s="9">
         <v>1</v>
@@ -1294,16 +1291,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="28">
         <v>45568</v>
@@ -1312,7 +1309,7 @@
         <v>45568</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" s="10">
         <v>2</v>
@@ -1413,33 +1410,33 @@
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -1574,36 +1571,36 @@
     </row>
     <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -1764,21 +1761,21 @@
     </row>
     <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">

--- a/DAILY DEV/Database update/Sample database_Ver2.xlsx
+++ b/DAILY DEV/Database update/Sample database_Ver2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT MENTORSHIP\DAILY DEV\Database update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9BCFEA-4279-4F19-BA72-288C2C28B48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A0E7F6-68F8-40CD-A775-995D33F37C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2700" windowWidth="19800" windowHeight="11760" xr2:uid="{15D63BB5-C475-44D3-8E71-0D37B2089469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{15D63BB5-C475-44D3-8E71-0D37B2089469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="104">
   <si>
     <t>UserID</t>
   </si>
@@ -253,6 +254,270 @@
   </si>
   <si>
     <t>FACT_NewsTags</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; User login nhập dữ liệu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; nhập dữ liệu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lấy dữ liệu từ bảng News</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NewsTags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lấy dữ liệu từ bảng News</t>
+    </r>
+  </si>
+  <si>
+    <t>NOTE:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UserTags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lấy dữ liệu từ User</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>UserCategory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lấy dữ liệu từ User</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lấy dữ liệu từ cột Link bảng Source</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>News</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lấy dữ liệu từ cột Link bảng Source (Fetch RSS, schedule)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lấy dữ liệu từ User và News (User thích tag)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://vnexpress.net/rss/the-gioi.rss</t>
+  </si>
+  <si>
+    <t>SourceCategories</t>
+  </si>
+  <si>
+    <t>SourceCategoriesID</t>
+  </si>
+  <si>
+    <t>URLViewSource</t>
+  </si>
+  <si>
+    <t>view-source:https://tuoitre.vn/rss.htm</t>
+  </si>
+  <si>
+    <t>view-source:https://vnexpress.net/rss</t>
+  </si>
+  <si>
+    <t>view-source:https://thanhnien.vn/rss.html</t>
+  </si>
+  <si>
+    <t>https://tuoitre.vn/rss/the-thao.rss</t>
+  </si>
+  <si>
+    <t>https://tuoitre.vn/rss/giai-tri.rss</t>
+  </si>
+  <si>
+    <t>https://tuoitre.vn/rss/van-hoa.rss</t>
+  </si>
+  <si>
+    <t>https://thanhnien.vn/rss/the-thao.rss</t>
+  </si>
+  <si>
+    <t>https://thanhnien.vn/rss/van-hoa.rss</t>
+  </si>
+  <si>
+    <t>https://thanhnien.vn/rss/giai-tri.rss</t>
+  </si>
+  <si>
+    <t>https://vnexpress.net/rss/giai-tri.rss</t>
+  </si>
+  <si>
+    <t>https://vnexpress.net/rss/the-thao.rss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SourceCategories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lấy dữ liệu từ cột Link bảng Source</t>
+    </r>
+  </si>
+  <si>
+    <t>DIM_SourceCategories</t>
+  </si>
+  <si>
+    <t>LinkRSS</t>
   </si>
 </sst>
 </file>
@@ -262,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +566,35 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,8 +709,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -495,124 +793,377 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,626 +1479,578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828876ED-8C0B-42FC-B508-7F82DE8718BA}">
-  <dimension ref="B2:K51"/>
+  <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="37.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="8">
         <v>45566</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="8">
         <v>45568</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="8">
         <v>45566</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="8">
         <v>45568</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="12">
         <v>45566</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="12">
         <v>45568</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="35">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="13">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="18">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="37">
-        <v>2</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="I12" s="19">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="14">
-        <v>3</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="21">
+        <v>3</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="38">
-        <v>3</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="I13" s="22">
+        <v>3</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="J16" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="8">
         <v>45568</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="8">
         <v>45568</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="24">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="8">
         <v>45568</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="8">
         <v>45568</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
-        <v>3</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="8">
         <v>45568</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="8">
         <v>45568</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="9">
-        <v>1</v>
-      </c>
-      <c r="K19" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <v>4</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="8">
         <v>45568</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="8">
         <v>45568</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="10">
-        <v>2</v>
-      </c>
-      <c r="K20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="28">
         <v>5</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="10">
-        <v>2</v>
-      </c>
-      <c r="K21" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="28">
         <v>6</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="10">
-        <v>2</v>
-      </c>
-      <c r="K22" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="28">
         <v>7</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="16">
-        <v>3</v>
-      </c>
-      <c r="K23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="28">
         <v>8</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="16">
-        <v>3</v>
-      </c>
-      <c r="K24" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="29">
         <v>9</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="11">
-        <v>3</v>
-      </c>
-      <c r="K25" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="17">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="28">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="28">
         <v>0</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="28">
         <v>0</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="28">
         <v>0</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
-        <v>2</v>
-      </c>
-      <c r="C30" s="17">
-        <v>1</v>
-      </c>
-      <c r="D30" s="25">
-        <v>2</v>
-      </c>
-      <c r="E30" s="13">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="28">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>2</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2</v>
+      </c>
+      <c r="F30" s="28">
+        <v>1</v>
+      </c>
+      <c r="G30" s="28">
         <v>0</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="28">
         <v>0</v>
       </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
-        <v>3</v>
-      </c>
-      <c r="C31" s="18">
-        <v>2</v>
-      </c>
-      <c r="D31" s="24">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="I30" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="28">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1</v>
+      </c>
+      <c r="F31" s="28">
         <v>0</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="28">
         <v>0</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="28">
         <v>0</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="28">
         <v>4</v>
       </c>
-      <c r="C32" s="18">
-        <v>2</v>
-      </c>
-      <c r="D32" s="26">
-        <v>3</v>
-      </c>
-      <c r="E32" s="15">
-        <v>3</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5">
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" s="25">
+        <v>3</v>
+      </c>
+      <c r="E32" s="26">
+        <v>3</v>
+      </c>
+      <c r="F32" s="28">
+        <v>1</v>
+      </c>
+      <c r="G32" s="28">
+        <v>1</v>
+      </c>
+      <c r="H32" s="28">
+        <v>1</v>
+      </c>
+      <c r="I32" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
+      <c r="B33" s="29">
         <v>5</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="10">
         <v>3</v>
       </c>
       <c r="D33" s="30">
@@ -1556,313 +2059,451 @@
       <c r="E33" s="31">
         <v>1</v>
       </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7">
+      <c r="F33" s="29">
+        <v>1</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1</v>
+      </c>
+      <c r="H33" s="29">
         <v>0</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="17">
-        <v>1</v>
-      </c>
-      <c r="D37" s="12">
-        <v>1</v>
-      </c>
-      <c r="E37" s="28">
+      <c r="B37" s="28">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
         <v>45567</v>
       </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17">
-        <v>1</v>
-      </c>
-      <c r="I37" s="35">
-        <v>1</v>
-      </c>
-      <c r="J37" s="28">
+      <c r="G37" s="28">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="16">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8">
         <v>45567</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
-        <v>2</v>
-      </c>
-      <c r="C38" s="17">
-        <v>1</v>
-      </c>
-      <c r="D38" s="13">
-        <v>2</v>
-      </c>
-      <c r="E38" s="28">
+      <c r="B38" s="28">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="8">
         <v>45567</v>
       </c>
-      <c r="G38" s="5">
-        <v>2</v>
-      </c>
-      <c r="H38" s="17">
-        <v>1</v>
-      </c>
-      <c r="I38" s="37">
-        <v>2</v>
-      </c>
-      <c r="J38" s="28">
+      <c r="G38" s="28">
+        <v>2</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="19">
+        <v>2</v>
+      </c>
+      <c r="J38" s="8">
         <v>45567</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="5">
-        <v>3</v>
-      </c>
-      <c r="C39" s="18">
-        <v>2</v>
-      </c>
-      <c r="D39" s="13">
-        <v>2</v>
-      </c>
-      <c r="E39" s="28">
+      <c r="B39" s="28">
+        <v>3</v>
+      </c>
+      <c r="C39" s="9">
+        <v>2</v>
+      </c>
+      <c r="D39" s="18">
+        <v>2</v>
+      </c>
+      <c r="E39" s="8">
         <v>45567</v>
       </c>
-      <c r="G39" s="5">
-        <v>3</v>
-      </c>
-      <c r="H39" s="18">
-        <v>2</v>
-      </c>
-      <c r="I39" s="37">
-        <v>2</v>
-      </c>
-      <c r="J39" s="28">
+      <c r="G39" s="28">
+        <v>3</v>
+      </c>
+      <c r="H39" s="9">
+        <v>2</v>
+      </c>
+      <c r="I39" s="19">
+        <v>2</v>
+      </c>
+      <c r="J39" s="8">
         <v>45567</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="5">
+      <c r="B40" s="28">
         <v>4</v>
       </c>
-      <c r="C40" s="18">
-        <v>2</v>
-      </c>
-      <c r="D40" s="15">
-        <v>3</v>
-      </c>
-      <c r="E40" s="28">
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" s="26">
+        <v>3</v>
+      </c>
+      <c r="E40" s="8">
         <v>45567</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="28">
         <v>4</v>
       </c>
-      <c r="H40" s="18">
-        <v>2</v>
-      </c>
-      <c r="I40" s="38">
-        <v>3</v>
-      </c>
-      <c r="J40" s="28">
+      <c r="H40" s="9">
+        <v>2</v>
+      </c>
+      <c r="I40" s="22">
+        <v>3</v>
+      </c>
+      <c r="J40" s="8">
         <v>45567</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="5">
+      <c r="B41" s="28">
         <v>5</v>
       </c>
-      <c r="C41" s="20">
-        <v>3</v>
-      </c>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
-      <c r="E41" s="28">
+      <c r="C41" s="32">
+        <v>3</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
         <v>45567</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="28">
         <v>5</v>
       </c>
-      <c r="H41" s="20">
-        <v>3</v>
-      </c>
-      <c r="I41" s="35">
-        <v>1</v>
-      </c>
-      <c r="J41" s="28">
+      <c r="H41" s="32">
+        <v>3</v>
+      </c>
+      <c r="I41" s="16">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
         <v>45567</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="7">
+      <c r="B42" s="29">
         <v>6</v>
       </c>
-      <c r="C42" s="19">
-        <v>3</v>
-      </c>
-      <c r="D42" s="14">
-        <v>3</v>
-      </c>
-      <c r="E42" s="29">
+      <c r="C42" s="10">
+        <v>3</v>
+      </c>
+      <c r="D42" s="21">
+        <v>3</v>
+      </c>
+      <c r="E42" s="12">
         <v>45567</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="29">
         <v>6</v>
       </c>
-      <c r="H42" s="19">
-        <v>3</v>
-      </c>
-      <c r="I42" s="38">
-        <v>3</v>
-      </c>
-      <c r="J42" s="29">
+      <c r="H42" s="10">
+        <v>3</v>
+      </c>
+      <c r="I42" s="22">
+        <v>3</v>
+      </c>
+      <c r="J42" s="12">
         <v>45567</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="42" t="s">
         <v>75</v>
       </c>
+      <c r="G44" s="42" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="G45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="32">
-        <v>1</v>
-      </c>
-      <c r="C46" s="24">
-        <v>1</v>
-      </c>
-      <c r="D46" s="35">
-        <v>1</v>
-      </c>
-      <c r="E46" s="28">
+      <c r="B46" s="33">
+        <v>1</v>
+      </c>
+      <c r="C46" s="23">
+        <v>1</v>
+      </c>
+      <c r="D46" s="16">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
         <v>45567</v>
       </c>
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
+      <c r="H46" s="33">
+        <v>1</v>
+      </c>
+      <c r="I46" s="33">
+        <v>1</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="32">
-        <v>2</v>
-      </c>
-      <c r="C47" s="24">
-        <v>1</v>
-      </c>
-      <c r="D47" s="37">
-        <v>2</v>
-      </c>
-      <c r="E47" s="28">
+      <c r="B47" s="33">
+        <v>2</v>
+      </c>
+      <c r="C47" s="23">
+        <v>1</v>
+      </c>
+      <c r="D47" s="19">
+        <v>2</v>
+      </c>
+      <c r="E47" s="8">
         <v>45567</v>
       </c>
+      <c r="G47" s="33">
+        <v>2</v>
+      </c>
+      <c r="H47" s="33">
+        <v>1</v>
+      </c>
+      <c r="I47" s="33">
+        <v>2</v>
+      </c>
+      <c r="J47" s="40"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="32">
-        <v>3</v>
-      </c>
-      <c r="C48" s="25">
-        <v>2</v>
-      </c>
-      <c r="D48" s="37">
-        <v>2</v>
-      </c>
-      <c r="E48" s="28">
+      <c r="B48" s="33">
+        <v>3</v>
+      </c>
+      <c r="C48" s="24">
+        <v>2</v>
+      </c>
+      <c r="D48" s="19">
+        <v>2</v>
+      </c>
+      <c r="E48" s="8">
         <v>45567</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="32">
+      <c r="G48" s="33">
+        <v>3</v>
+      </c>
+      <c r="H48" s="33">
+        <v>1</v>
+      </c>
+      <c r="I48" s="33">
+        <v>3</v>
+      </c>
+      <c r="J48" s="40"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="33">
         <v>4</v>
       </c>
-      <c r="C49" s="25">
-        <v>2</v>
-      </c>
-      <c r="D49" s="39">
-        <v>3</v>
-      </c>
-      <c r="E49" s="28">
+      <c r="C49" s="24">
+        <v>2</v>
+      </c>
+      <c r="D49" s="34">
+        <v>3</v>
+      </c>
+      <c r="E49" s="8">
         <v>45567</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="32">
+      <c r="G49" s="33">
+        <v>4</v>
+      </c>
+      <c r="H49" s="33">
+        <v>2</v>
+      </c>
+      <c r="I49" s="33">
+        <v>1</v>
+      </c>
+      <c r="J49" s="40"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="33">
         <v>5</v>
       </c>
-      <c r="C50" s="26">
-        <v>3</v>
-      </c>
-      <c r="D50" s="39">
-        <v>3</v>
-      </c>
-      <c r="E50" s="28">
+      <c r="C50" s="25">
+        <v>3</v>
+      </c>
+      <c r="D50" s="34">
+        <v>3</v>
+      </c>
+      <c r="E50" s="8">
         <v>45567</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="33">
+      <c r="G50" s="33">
+        <v>5</v>
+      </c>
+      <c r="H50" s="33">
+        <v>2</v>
+      </c>
+      <c r="I50" s="33">
+        <v>2</v>
+      </c>
+      <c r="J50" s="40"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="35">
         <v>6</v>
       </c>
-      <c r="C51" s="34">
-        <v>3</v>
-      </c>
-      <c r="D51" s="36">
-        <v>1</v>
-      </c>
-      <c r="E51" s="29">
+      <c r="C51" s="36">
+        <v>3</v>
+      </c>
+      <c r="D51" s="37">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12">
         <v>45567</v>
       </c>
+      <c r="G51" s="35">
+        <v>6</v>
+      </c>
+      <c r="H51" s="35">
+        <v>2</v>
+      </c>
+      <c r="I51" s="35">
+        <v>3</v>
+      </c>
+      <c r="J51" s="41"/>
+    </row>
+    <row r="56" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="46"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="45"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="43"/>
+    </row>
+    <row r="58" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="45"/>
+      <c r="E58" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" s="43"/>
+    </row>
+    <row r="59" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="45"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="43"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="D56:D59"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{1E12F139-E32A-4DD5-84A3-C4B0F9BDB394}"/>
     <hyperlink ref="E6" r:id="rId2" xr:uid="{693C20D9-8258-4BFB-A86C-C92C8A3BE45B}"/>
@@ -1874,4 +2515,1123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF3BD6-2126-4B86-AA32-3B11FDE46487}">
+  <dimension ref="B2:K61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8">
+        <v>45566</v>
+      </c>
+      <c r="G5" s="8">
+        <v>45568</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8">
+        <v>45566</v>
+      </c>
+      <c r="G6" s="8">
+        <v>45568</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="12">
+        <v>45566</v>
+      </c>
+      <c r="G7" s="12">
+        <v>45568</v>
+      </c>
+      <c r="I7" s="21">
+        <v>3</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="22">
+        <v>3</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="8">
+        <v>45568</v>
+      </c>
+      <c r="H17" s="8">
+        <v>45568</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="24">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="8">
+        <v>45568</v>
+      </c>
+      <c r="H18" s="8">
+        <v>45568</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="8">
+        <v>45568</v>
+      </c>
+      <c r="H19" s="8">
+        <v>45568</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="27">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="8">
+        <v>45568</v>
+      </c>
+      <c r="H20" s="8">
+        <v>45568</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="28">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="28">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="28">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="28">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="29">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="28">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="28">
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
+        <v>0</v>
+      </c>
+      <c r="H29" s="28">
+        <v>0</v>
+      </c>
+      <c r="I29" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="28">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>2</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2</v>
+      </c>
+      <c r="F30" s="28">
+        <v>1</v>
+      </c>
+      <c r="G30" s="28">
+        <v>0</v>
+      </c>
+      <c r="H30" s="28">
+        <v>0</v>
+      </c>
+      <c r="I30" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="28">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1</v>
+      </c>
+      <c r="F31" s="28">
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
+        <v>0</v>
+      </c>
+      <c r="H31" s="28">
+        <v>0</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="28">
+        <v>4</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" s="25">
+        <v>3</v>
+      </c>
+      <c r="E32" s="26">
+        <v>3</v>
+      </c>
+      <c r="F32" s="28">
+        <v>1</v>
+      </c>
+      <c r="G32" s="28">
+        <v>1</v>
+      </c>
+      <c r="H32" s="28">
+        <v>1</v>
+      </c>
+      <c r="I32" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="29">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
+      <c r="D33" s="30">
+        <v>4</v>
+      </c>
+      <c r="E33" s="31">
+        <v>1</v>
+      </c>
+      <c r="F33" s="29">
+        <v>1</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1</v>
+      </c>
+      <c r="H33" s="29">
+        <v>0</v>
+      </c>
+      <c r="I33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="28">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
+        <v>45567</v>
+      </c>
+      <c r="G37" s="28">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="16">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="28">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="8">
+        <v>45567</v>
+      </c>
+      <c r="G38" s="28">
+        <v>2</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="19">
+        <v>2</v>
+      </c>
+      <c r="J38" s="8">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="28">
+        <v>3</v>
+      </c>
+      <c r="C39" s="9">
+        <v>2</v>
+      </c>
+      <c r="D39" s="18">
+        <v>2</v>
+      </c>
+      <c r="E39" s="8">
+        <v>45567</v>
+      </c>
+      <c r="G39" s="28">
+        <v>3</v>
+      </c>
+      <c r="H39" s="9">
+        <v>2</v>
+      </c>
+      <c r="I39" s="19">
+        <v>2</v>
+      </c>
+      <c r="J39" s="8">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="28">
+        <v>4</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" s="26">
+        <v>3</v>
+      </c>
+      <c r="E40" s="8">
+        <v>45567</v>
+      </c>
+      <c r="G40" s="28">
+        <v>4</v>
+      </c>
+      <c r="H40" s="9">
+        <v>2</v>
+      </c>
+      <c r="I40" s="22">
+        <v>3</v>
+      </c>
+      <c r="J40" s="8">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="28">
+        <v>5</v>
+      </c>
+      <c r="C41" s="32">
+        <v>3</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
+        <v>45567</v>
+      </c>
+      <c r="G41" s="28">
+        <v>5</v>
+      </c>
+      <c r="H41" s="32">
+        <v>3</v>
+      </c>
+      <c r="I41" s="16">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="29">
+        <v>6</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3</v>
+      </c>
+      <c r="D42" s="21">
+        <v>3</v>
+      </c>
+      <c r="E42" s="12">
+        <v>45567</v>
+      </c>
+      <c r="G42" s="29">
+        <v>6</v>
+      </c>
+      <c r="H42" s="10">
+        <v>3</v>
+      </c>
+      <c r="I42" s="22">
+        <v>3</v>
+      </c>
+      <c r="J42" s="12">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="33">
+        <v>1</v>
+      </c>
+      <c r="C46" s="23">
+        <v>1</v>
+      </c>
+      <c r="D46" s="16">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
+        <v>45567</v>
+      </c>
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
+      <c r="H46" s="14">
+        <v>1</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1</v>
+      </c>
+      <c r="J46" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="33">
+        <v>2</v>
+      </c>
+      <c r="C47" s="23">
+        <v>1</v>
+      </c>
+      <c r="D47" s="19">
+        <v>2</v>
+      </c>
+      <c r="E47" s="8">
+        <v>45567</v>
+      </c>
+      <c r="G47" s="33">
+        <v>2</v>
+      </c>
+      <c r="H47" s="67">
+        <v>1</v>
+      </c>
+      <c r="I47" s="18">
+        <v>2</v>
+      </c>
+      <c r="J47" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="33">
+        <v>3</v>
+      </c>
+      <c r="C48" s="24">
+        <v>2</v>
+      </c>
+      <c r="D48" s="19">
+        <v>2</v>
+      </c>
+      <c r="E48" s="8">
+        <v>45567</v>
+      </c>
+      <c r="G48" s="33">
+        <v>3</v>
+      </c>
+      <c r="H48" s="67">
+        <v>1</v>
+      </c>
+      <c r="I48" s="26">
+        <v>3</v>
+      </c>
+      <c r="J48" s="71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="33">
+        <v>4</v>
+      </c>
+      <c r="C49" s="24">
+        <v>2</v>
+      </c>
+      <c r="D49" s="34">
+        <v>3</v>
+      </c>
+      <c r="E49" s="8">
+        <v>45567</v>
+      </c>
+      <c r="G49" s="76">
+        <v>4</v>
+      </c>
+      <c r="H49" s="68">
+        <v>2</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1</v>
+      </c>
+      <c r="J49" s="71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="33">
+        <v>5</v>
+      </c>
+      <c r="C50" s="25">
+        <v>3</v>
+      </c>
+      <c r="D50" s="34">
+        <v>3</v>
+      </c>
+      <c r="E50" s="8">
+        <v>45567</v>
+      </c>
+      <c r="G50" s="33">
+        <v>5</v>
+      </c>
+      <c r="H50" s="68">
+        <v>2</v>
+      </c>
+      <c r="I50" s="18">
+        <v>2</v>
+      </c>
+      <c r="J50" s="71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="35">
+        <v>6</v>
+      </c>
+      <c r="C51" s="36">
+        <v>3</v>
+      </c>
+      <c r="D51" s="37">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>45567</v>
+      </c>
+      <c r="G51" s="77">
+        <v>6</v>
+      </c>
+      <c r="H51" s="68">
+        <v>2</v>
+      </c>
+      <c r="I51" s="26">
+        <v>3</v>
+      </c>
+      <c r="J51" s="71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="78">
+        <v>7</v>
+      </c>
+      <c r="H52" s="69">
+        <v>3</v>
+      </c>
+      <c r="I52" s="15">
+        <v>1</v>
+      </c>
+      <c r="J52" s="71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="75">
+        <v>8</v>
+      </c>
+      <c r="H53" s="70">
+        <v>3</v>
+      </c>
+      <c r="I53" s="73">
+        <v>2</v>
+      </c>
+      <c r="J53" s="72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D56" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D57" s="59"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="65"/>
+    </row>
+    <row r="58" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="59"/>
+      <c r="E58" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" s="65"/>
+    </row>
+    <row r="59" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D59" s="59"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="65"/>
+    </row>
+    <row r="60" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="60"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="62"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="66"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G56:H57"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{742F060E-CD5C-4E61-90E2-DABEDFEC7510}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{D64B518E-FE02-42CC-818E-73A3E8F8D9B3}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{6FED89ED-9615-4867-A3F9-C4CEF952DDF0}"/>
+    <hyperlink ref="I18" r:id="rId4" xr:uid="{ABD78EA3-BB09-4C91-97FA-CC834EBFAB20}"/>
+    <hyperlink ref="I19" r:id="rId5" xr:uid="{F36AAB65-02FD-42AA-80E3-FD7207AA562F}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{D6B29A21-78DA-49DF-95F5-65182E5F5C21}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
 </file>